--- a/hole_original_scheme.xlsx
+++ b/hole_original_scheme.xlsx
@@ -474,46 +474,46 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6.737544010000001</v>
+        <v>6.90469672</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.2020494420000001</v>
+        <v>0.218754029</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.211207407</v>
+        <v>0.2214624380000001</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.8223234569999996</v>
+        <v>0.827094886</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.8246025939999996</v>
+        <v>0.8014628109999997</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.305289657</v>
+        <v>0.3032432729999999</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.3114672989999999</v>
+        <v>0.304065952</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.5262437309999999</v>
+        <v>0.5458651550000002</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.252498173</v>
+        <v>0.214443202</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.247246521</v>
+        <v>0.260085155</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1.26919925</v>
+        <v>1.23958213</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1.46793258</v>
+        <v>1.41131768</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>0.05120304360000003</v>
+        <v>0.05042014660000001</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>0.05226720600000002</v>
+        <v>0.0518969469</v>
       </c>
       <c r="P2" s="1">
         <f>SUM(B2:O2)</f>
@@ -527,46 +527,46 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>12.2650042</v>
+        <v>14.4239062</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>33.7361793</v>
+        <v>32.859141</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>33.78336969999999</v>
+        <v>33.44735969999998</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.307244372</v>
+        <v>0.3062509190000001</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.311681866</v>
+        <v>0.3113070370000001</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>-0.08224288209999997</v>
+        <v>-0.08170664549999998</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-0.08115237650000001</v>
+        <v>-0.08004740980000002</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>-0.06805043710000003</v>
+        <v>-0.06622032009999999</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.254042783</v>
+        <v>0.2379887409999999</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.263949008</v>
+        <v>0.2495089069999999</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>0.4771891220000001</v>
+        <v>0.4589698839999998</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>0.07446182916499997</v>
+        <v>0.06567668034</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>0.0009238314320000003</v>
+        <v>0.0009675581130000002</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>0.00100905645</v>
+        <v>0.0009608732589999999</v>
       </c>
       <c r="P3" s="1">
         <f>SUM(B3:O3)</f>
@@ -580,46 +580,46 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3.486403699999999</v>
+        <v>4.549206210000003</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-1.746087050000002</v>
+        <v>-1.674003029999999</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>-1.77337312</v>
+        <v>-1.759295360000001</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-0.07080176530000001</v>
+        <v>-0.0656209546</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-0.06851922620000001</v>
+        <v>-0.0723349321</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>-0.0291505181</v>
+        <v>-0.0289221772</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>-0.0298499933</v>
+        <v>-0.02897817940000001</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>-0.0766473749</v>
+        <v>-0.07615710010000006</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.07700801309999998</v>
+        <v>0.06976329340000004</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.07407876970000003</v>
+        <v>0.07628281749999999</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>1.165623124e-05</v>
+        <v>1.26949957e-05</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.02790498929999999</v>
+        <v>0.02792495711</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>-0.000176098805</v>
+        <v>-0.000175680852</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>-0.0001809339690000001</v>
+        <v>-0.0001782225050000001</v>
       </c>
       <c r="P4" s="1">
         <f>SUM(B4:O4)</f>
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2897.614849500002</v>
+        <v>7.020246779999999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-34.66370148700001</v>
+        <v>0.188795643</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-2.944316466940001</v>
+        <v>0.363471581</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-8.754208494010001</v>
+        <v>0.8873029879999998</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.5516585785</v>
+        <v>0.8069832299999997</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.262723638</v>
+        <v>0.3074515709999999</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.3492991879999999</v>
+        <v>0.305877282</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.6714369450000001</v>
+        <v>0.5170523149999998</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>-8.499071945299997</v>
+        <v>0.239937708</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>-0.3924655074499999</v>
+        <v>0.172367853</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>3.087452382000001</v>
+        <v>1.1119309</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.731211433</v>
+        <v>1.32382775</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.0341177881</v>
+        <v>0.05762045280000001</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.05509328520000002</v>
+        <v>0.05429450590000002</v>
       </c>
       <c r="P8" s="1">
         <f>SUM(B8:O8)</f>
@@ -775,46 +775,46 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>11670.06931499999</v>
+        <v>14.5170331</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>68.52368269999999</v>
+        <v>32.4505923</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>48.2651236</v>
+        <v>32.9000246</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>7.103313115</v>
+        <v>0.299778391</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1.99768228</v>
+        <v>0.530133232</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>-0.04967527718499997</v>
+        <v>-0.08300941729999999</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>-0.08486505840000003</v>
+        <v>-0.08072328960000003</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>-0.1165421274</v>
+        <v>-0.05705000550000001</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>9.297509443999996</v>
+        <v>0.2070586119999999</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0.8303076970000002</v>
+        <v>0.178271549</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>0.255602845077</v>
+        <v>0.339151983</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>-0.3057955070162001</v>
+        <v>0.09682870859999999</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0.0005776942870000002</v>
+        <v>0.00110297264</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.001022815687000001</v>
+        <v>0.0009464365739999998</v>
       </c>
       <c r="P9" s="1">
         <f>SUM(B9:O9)</f>
@@ -828,46 +828,46 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2431.874427</v>
+        <v>4.018189019999999</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-0.1575016257999998</v>
+        <v>-1.57983973</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>-1.98675056</v>
+        <v>-1.872244069999999</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1.5249620114</v>
+        <v>-0.08607424399999999</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.02864533913000002</v>
+        <v>-0.09293860949999999</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-0.0265439523</v>
+        <v>-0.0292705509</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>-0.03405258339999999</v>
+        <v>-0.02931217919999999</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>-0.1096747536</v>
+        <v>-0.0682233585</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>1.1620728124</v>
+        <v>0.08430870400000001</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.05568458600999998</v>
+        <v>0.0553649842</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>-6.450043690000002e-05</v>
+        <v>8.68644161e-06</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.07752267979999998</v>
+        <v>0.01966328542</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>-0.0001133154682</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0.000190612347</v>
+        <v>-0.000200774161</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>-0.000183384731</v>
       </c>
       <c r="P10" s="1">
         <f>SUM(B10:O10)</f>
@@ -1091,6 +1091,48 @@
           <t>drag</t>
         </is>
       </c>
+      <c r="B20" s="1" t="n">
+        <v>5.99537238</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.1989517443333333</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.2096390106666667</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.8252191806666664</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0.8081911713333333</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0.3109605439999998</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.3129511589999999</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0.5496914936666666</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0.2547220853333335</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0.2584749343333332</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1.246193763333333</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>1.432869546666667</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0.05267914829999996</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0.05240444226666664</v>
+      </c>
       <c r="P20" s="1">
         <f>SUM(B20:O20)</f>
         <v/>
@@ -1102,6 +1144,48 @@
           <t>lift</t>
         </is>
       </c>
+      <c r="B21" s="1" t="n">
+        <v>13.59304106666667</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>34.0697657</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>34.01289653333331</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.301475781</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0.330830106666667</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-0.08212031226666668</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-0.08163987483333332</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>-0.06710818879999994</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0.2726541059999998</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0.2676956066666669</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0.5015477566666665</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0.07584488756666669</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0.0009963765743333333</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0.001003537620333334</v>
+      </c>
       <c r="P21" s="1">
         <f>SUM(B21:O21)</f>
         <v/>
@@ -1112,6 +1196,48 @@
         <is>
           <t>moment</t>
         </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>4.050977996666669</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-1.795934063333334</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-1.793221203333332</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-0.07066151576666665</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-0.07312308486666662</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-0.02969335623333334</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-0.03000443143333332</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>-0.07783111600000005</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0.0750523508</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0.0753064853</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>1.436324566333333e-05</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0.02665019413333334</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>-0.0001829159053333331</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>-0.0001812187666666667</v>
       </c>
       <c r="P22" s="1">
         <f>SUM(B22:O22)</f>
